--- a/AUC.xlsx
+++ b/AUC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>ZeroR</t>
   </si>
@@ -38,11 +38,29 @@
   <si>
     <t>Model</t>
   </si>
+  <si>
+    <t>AUC(A-B)</t>
+  </si>
+  <si>
+    <t>AUC(A, B, A-B)</t>
+  </si>
+  <si>
+    <t>AUC(A, B)</t>
+  </si>
+  <si>
+    <t>Linear SVM</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -85,17 +103,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -129,7 +160,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -141,9 +172,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>ZeroR</c:v>
                 </c:pt>
@@ -155,16 +186,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Regression Tree</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linear SVM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -175,7 +212,13 @@
                   <c:v>0.86048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84103</c:v>
+                  <c:v>0.84643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -190,11 +233,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2145851304"/>
-        <c:axId val="2096338664"/>
+        <c:axId val="-2133035544"/>
+        <c:axId val="-2133058296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2145851304"/>
+        <c:axId val="-2133035544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -222,7 +265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096338664"/>
+        <c:crossAx val="-2133058296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -230,10 +273,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096338664"/>
+        <c:axId val="-2133058296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.4"/>
+          <c:min val="0.45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -261,7 +304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145851304"/>
+        <c:crossAx val="-2133035544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -278,20 +321,315 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC(A-B)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regression Tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linear SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.86048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC(A, B, A-B)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regression Tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linear SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.85898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84643</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC(A, B)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regression Tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gradient Boosting</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Linear SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2133977688"/>
+        <c:axId val="-2133973320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2133977688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133973320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2133973320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.87"/>
+          <c:min val="0.835"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AUC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133977688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -305,6 +643,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -635,55 +1005,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.5</v>
       </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.76732999999999996</v>
       </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.76732999999999996</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.86048000000000002</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.85897999999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0.86048000000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.84103000000000006</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.84643000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0.84643000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.85745000000000005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.86434</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.86931999999999998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.86931999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.85992999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.85712999999999995</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0.85992999999999997</v>
       </c>
     </row>
   </sheetData>
